--- a/natmiOut/OldD2/LR-pairs_lrc2p/Ncam1-Fgfr1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Ncam1-Fgfr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>Fgfr1</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.411380039520636</v>
+        <v>0.66889</v>
       </c>
       <c r="H2">
-        <v>0.411380039520636</v>
+        <v>1.33778</v>
       </c>
       <c r="I2">
-        <v>0.008397448250399588</v>
+        <v>0.01180009979280774</v>
       </c>
       <c r="J2">
-        <v>0.008397448250399588</v>
+        <v>0.01150792026947964</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>9.552684602533731</v>
+        <v>10.077153</v>
       </c>
       <c r="N2">
-        <v>9.552684602533731</v>
+        <v>20.154306</v>
       </c>
       <c r="O2">
-        <v>0.08903631199983512</v>
+        <v>0.08561976287781047</v>
       </c>
       <c r="P2">
-        <v>0.08903631199983512</v>
+        <v>0.06709546746404282</v>
       </c>
       <c r="Q2">
-        <v>3.929783769318497</v>
+        <v>6.740506870169999</v>
       </c>
       <c r="R2">
-        <v>3.929783769318497</v>
+        <v>26.96202748068</v>
       </c>
       <c r="S2">
-        <v>0.0007476778224250473</v>
+        <v>0.001010321746194699</v>
       </c>
       <c r="T2">
-        <v>0.0007476778224250473</v>
+        <v>0.0007721292900196702</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.411380039520636</v>
+        <v>0.66889</v>
       </c>
       <c r="H3">
-        <v>0.411380039520636</v>
+        <v>1.33778</v>
       </c>
       <c r="I3">
-        <v>0.008397448250399588</v>
+        <v>0.01180009979280774</v>
       </c>
       <c r="J3">
-        <v>0.008397448250399588</v>
+        <v>0.01150792026947964</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>52.5510556573628</v>
+        <v>56.16712533333333</v>
       </c>
       <c r="N3">
-        <v>52.5510556573628</v>
+        <v>168.501376</v>
       </c>
       <c r="O3">
-        <v>0.4898049482538784</v>
+        <v>0.4772197020892965</v>
       </c>
       <c r="P3">
-        <v>0.4898049482538784</v>
+        <v>0.560955985835208</v>
       </c>
       <c r="Q3">
-        <v>21.61845535317705</v>
+        <v>37.56962846421333</v>
       </c>
       <c r="R3">
-        <v>21.61845535317705</v>
+        <v>225.41777078528</v>
       </c>
       <c r="S3">
-        <v>0.004113111705751593</v>
+        <v>0.005631240107747681</v>
       </c>
       <c r="T3">
-        <v>0.004113111705751593</v>
+        <v>0.006455436759678925</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.411380039520636</v>
+        <v>0.66889</v>
       </c>
       <c r="H4">
-        <v>0.411380039520636</v>
+        <v>1.33778</v>
       </c>
       <c r="I4">
-        <v>0.008397448250399588</v>
+        <v>0.01180009979280774</v>
       </c>
       <c r="J4">
-        <v>0.008397448250399588</v>
+        <v>0.01150792026947964</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.889687520140936</v>
+        <v>0.9207109999999999</v>
       </c>
       <c r="N4">
-        <v>0.889687520140936</v>
+        <v>2.762133</v>
       </c>
       <c r="O4">
-        <v>0.008292380510984035</v>
+        <v>0.007822750880034444</v>
       </c>
       <c r="P4">
-        <v>0.008292380510984035</v>
+        <v>0.009195385087080598</v>
       </c>
       <c r="Q4">
-        <v>0.3659996871965949</v>
+        <v>0.61585438079</v>
       </c>
       <c r="R4">
-        <v>0.3659996871965949</v>
+        <v>3.69512628474</v>
       </c>
       <c r="S4">
-        <v>6.963483621361053E-05</v>
+        <v>9.230924103868104E-05</v>
       </c>
       <c r="T4">
-        <v>6.963483621361053E-05</v>
+        <v>0.0001058197584292856</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.411380039520636</v>
+        <v>0.66889</v>
       </c>
       <c r="H5">
-        <v>0.411380039520636</v>
+        <v>1.33778</v>
       </c>
       <c r="I5">
-        <v>0.008397448250399588</v>
+        <v>0.01180009979280774</v>
       </c>
       <c r="J5">
-        <v>0.008397448250399588</v>
+        <v>0.01150792026947964</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.27656000284942</v>
+        <v>1.441214666666667</v>
       </c>
       <c r="N5">
-        <v>1.27656000284942</v>
+        <v>4.323644</v>
       </c>
       <c r="O5">
-        <v>0.01189824634951984</v>
+        <v>0.01224517063658978</v>
       </c>
       <c r="P5">
-        <v>0.01189824634951984</v>
+        <v>0.01439379333270538</v>
       </c>
       <c r="Q5">
-        <v>0.5251513044226576</v>
+        <v>0.9640140783866665</v>
       </c>
       <c r="R5">
-        <v>0.5251513044226576</v>
+        <v>5.78408447032</v>
       </c>
       <c r="S5">
-        <v>9.991490799059869E-05</v>
+        <v>0.0001444942354917185</v>
       </c>
       <c r="T5">
-        <v>9.991490799059869E-05</v>
+        <v>0.0001656426260481411</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.411380039520636</v>
+        <v>0.66889</v>
       </c>
       <c r="H6">
-        <v>0.411380039520636</v>
+        <v>1.33778</v>
       </c>
       <c r="I6">
-        <v>0.008397448250399588</v>
+        <v>0.01180009979280774</v>
       </c>
       <c r="J6">
-        <v>0.008397448250399588</v>
+        <v>0.01150792026947964</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.1299349819137</v>
+        <v>6.460321333333333</v>
       </c>
       <c r="N6">
-        <v>6.1299349819137</v>
+        <v>19.380964</v>
       </c>
       <c r="O6">
-        <v>0.05713438957710472</v>
+        <v>0.05488962811961477</v>
       </c>
       <c r="P6">
-        <v>0.05713438957710472</v>
+        <v>0.06452094353850663</v>
       </c>
       <c r="Q6">
-        <v>2.521732895118587</v>
+        <v>4.321244336653333</v>
       </c>
       <c r="R6">
-        <v>2.521732895118587</v>
+        <v>25.92746601992</v>
       </c>
       <c r="S6">
-        <v>0.0004797830797919065</v>
+        <v>0.0006477030894015603</v>
       </c>
       <c r="T6">
-        <v>0.0004797830797919065</v>
+        <v>0.0007425018739527319</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.411380039520636</v>
+        <v>0.66889</v>
       </c>
       <c r="H7">
-        <v>0.411380039520636</v>
+        <v>1.33778</v>
       </c>
       <c r="I7">
-        <v>0.008397448250399588</v>
+        <v>0.01180009979280774</v>
       </c>
       <c r="J7">
-        <v>0.008397448250399588</v>
+        <v>0.01150792026947964</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>36.8898378729875</v>
+        <v>42.6300515</v>
       </c>
       <c r="N7">
-        <v>36.8898378729875</v>
+        <v>85.260103</v>
       </c>
       <c r="O7">
-        <v>0.3438337233086778</v>
+        <v>0.362202985396654</v>
       </c>
       <c r="P7">
-        <v>0.3438337233086778</v>
+        <v>0.2838384247424566</v>
       </c>
       <c r="Q7">
-        <v>15.17574296209945</v>
+        <v>28.514815147835</v>
       </c>
       <c r="R7">
-        <v>15.17574296209945</v>
+        <v>114.05926059134</v>
       </c>
       <c r="S7">
-        <v>0.002887325898226832</v>
+        <v>0.004274031372933403</v>
       </c>
       <c r="T7">
-        <v>0.002887325898226832</v>
+        <v>0.003266389961350888</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.04670685051394</v>
+        <v>2.349703666666667</v>
       </c>
       <c r="H8">
-        <v>2.04670685051394</v>
+        <v>7.049111</v>
       </c>
       <c r="I8">
-        <v>0.04177916575864148</v>
+        <v>0.04145186465665943</v>
       </c>
       <c r="J8">
-        <v>0.04177916575864148</v>
+        <v>0.0606382270318826</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>9.552684602533731</v>
+        <v>10.077153</v>
       </c>
       <c r="N8">
-        <v>9.552684602533731</v>
+        <v>20.154306</v>
       </c>
       <c r="O8">
-        <v>0.08903631199983512</v>
+        <v>0.08561976287781047</v>
       </c>
       <c r="P8">
-        <v>0.08903631199983512</v>
+        <v>0.06709546746404282</v>
       </c>
       <c r="Q8">
-        <v>19.55154501680482</v>
+        <v>23.678323353661</v>
       </c>
       <c r="R8">
-        <v>19.55154501680482</v>
+        <v>142.069940121966</v>
       </c>
       <c r="S8">
-        <v>0.003719862837579231</v>
+        <v>0.003549098822746273</v>
       </c>
       <c r="T8">
-        <v>0.003719862837579231</v>
+        <v>0.004068550188894921</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.04670685051394</v>
+        <v>2.349703666666667</v>
       </c>
       <c r="H9">
-        <v>2.04670685051394</v>
+        <v>7.049111</v>
       </c>
       <c r="I9">
-        <v>0.04177916575864148</v>
+        <v>0.04145186465665943</v>
       </c>
       <c r="J9">
-        <v>0.04177916575864148</v>
+        <v>0.0606382270318826</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>52.5510556573628</v>
+        <v>56.16712533333333</v>
       </c>
       <c r="N9">
-        <v>52.5510556573628</v>
+        <v>168.501376</v>
       </c>
       <c r="O9">
-        <v>0.4898049482538784</v>
+        <v>0.4772197020892965</v>
       </c>
       <c r="P9">
-        <v>0.4898049482538784</v>
+        <v>0.560955985835208</v>
       </c>
       <c r="Q9">
-        <v>107.5566056156638</v>
+        <v>131.9761003418595</v>
       </c>
       <c r="R9">
-        <v>107.5566056156638</v>
+        <v>1187.784903076736</v>
       </c>
       <c r="S9">
-        <v>0.0204636421225016</v>
+        <v>0.01978164650249686</v>
       </c>
       <c r="T9">
-        <v>0.0204636421225016</v>
+        <v>0.03401537642396887</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.04670685051394</v>
+        <v>2.349703666666667</v>
       </c>
       <c r="H10">
-        <v>2.04670685051394</v>
+        <v>7.049111</v>
       </c>
       <c r="I10">
-        <v>0.04177916575864148</v>
+        <v>0.04145186465665943</v>
       </c>
       <c r="J10">
-        <v>0.04177916575864148</v>
+        <v>0.0606382270318826</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.889687520140936</v>
+        <v>0.9207109999999999</v>
       </c>
       <c r="N10">
-        <v>0.889687520140936</v>
+        <v>2.762133</v>
       </c>
       <c r="O10">
-        <v>0.008292380510984035</v>
+        <v>0.007822750880034444</v>
       </c>
       <c r="P10">
-        <v>0.008292380510984035</v>
+        <v>0.009195385087080598</v>
       </c>
       <c r="Q10">
-        <v>1.820929542289213</v>
+        <v>2.163398012640333</v>
       </c>
       <c r="R10">
-        <v>1.820929542289213</v>
+        <v>19.470582113763</v>
       </c>
       <c r="S10">
-        <v>0.0003464487399021301</v>
+        <v>0.0003242676107219512</v>
       </c>
       <c r="T10">
-        <v>0.0003464487399021301</v>
+        <v>0.0005575918485559809</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.04670685051394</v>
+        <v>2.349703666666667</v>
       </c>
       <c r="H11">
-        <v>2.04670685051394</v>
+        <v>7.049111</v>
       </c>
       <c r="I11">
-        <v>0.04177916575864148</v>
+        <v>0.04145186465665943</v>
       </c>
       <c r="J11">
-        <v>0.04177916575864148</v>
+        <v>0.0606382270318826</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.27656000284942</v>
+        <v>1.441214666666667</v>
       </c>
       <c r="N11">
-        <v>1.27656000284942</v>
+        <v>4.323644</v>
       </c>
       <c r="O11">
-        <v>0.01189824634951984</v>
+        <v>0.01224517063658978</v>
       </c>
       <c r="P11">
-        <v>0.01189824634951984</v>
+        <v>0.01439379333270538</v>
       </c>
       <c r="Q11">
-        <v>2.612744102924003</v>
+        <v>3.386427386720444</v>
       </c>
       <c r="R11">
-        <v>2.612744102924003</v>
+        <v>30.477846480484</v>
       </c>
       <c r="S11">
-        <v>0.0004970988064737404</v>
+        <v>0.0005075851559256199</v>
       </c>
       <c r="T11">
-        <v>0.0004970988064737404</v>
+        <v>0.0008728141079585869</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.04670685051394</v>
+        <v>2.349703666666667</v>
       </c>
       <c r="H12">
-        <v>2.04670685051394</v>
+        <v>7.049111</v>
       </c>
       <c r="I12">
-        <v>0.04177916575864148</v>
+        <v>0.04145186465665943</v>
       </c>
       <c r="J12">
-        <v>0.04177916575864148</v>
+        <v>0.0606382270318826</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.1299349819137</v>
+        <v>6.460321333333333</v>
       </c>
       <c r="N12">
-        <v>6.1299349819137</v>
+        <v>19.380964</v>
       </c>
       <c r="O12">
-        <v>0.05713438957710472</v>
+        <v>0.05488962811961477</v>
       </c>
       <c r="P12">
-        <v>0.05713438957710472</v>
+        <v>0.06452094353850663</v>
       </c>
       <c r="Q12">
-        <v>12.54617992068782</v>
+        <v>15.17984072477822</v>
       </c>
       <c r="R12">
-        <v>12.54617992068782</v>
+        <v>136.618566523004</v>
       </c>
       <c r="S12">
-        <v>0.002387027132660656</v>
+        <v>0.002275277435868639</v>
       </c>
       <c r="T12">
-        <v>0.002387027132660656</v>
+        <v>0.003912435622599244</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.04670685051394</v>
+        <v>2.349703666666667</v>
       </c>
       <c r="H13">
-        <v>2.04670685051394</v>
+        <v>7.049111</v>
       </c>
       <c r="I13">
-        <v>0.04177916575864148</v>
+        <v>0.04145186465665943</v>
       </c>
       <c r="J13">
-        <v>0.04177916575864148</v>
+        <v>0.0606382270318826</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>36.8898378729875</v>
+        <v>42.6300515</v>
       </c>
       <c r="N13">
-        <v>36.8898378729875</v>
+        <v>85.260103</v>
       </c>
       <c r="O13">
-        <v>0.3438337233086778</v>
+        <v>0.362202985396654</v>
       </c>
       <c r="P13">
-        <v>0.3438337233086778</v>
+        <v>0.2838384247424566</v>
       </c>
       <c r="Q13">
-        <v>75.50268388899211</v>
+        <v>100.1679883197388</v>
       </c>
       <c r="R13">
-        <v>75.50268388899211</v>
+        <v>601.007929918433</v>
       </c>
       <c r="S13">
-        <v>0.01436508611952412</v>
+        <v>0.0150139891289001</v>
       </c>
       <c r="T13">
-        <v>0.01436508611952412</v>
+        <v>0.01721145883990501</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.122104105361669</v>
+        <v>0.02107333333333333</v>
       </c>
       <c r="H14">
-        <v>0.122104105361669</v>
+        <v>0.06322</v>
       </c>
       <c r="I14">
-        <v>0.002492495521004779</v>
+        <v>0.000371761330413723</v>
       </c>
       <c r="J14">
-        <v>0.002492495521004779</v>
+        <v>0.0005438343520134124</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>9.552684602533731</v>
+        <v>10.077153</v>
       </c>
       <c r="N14">
-        <v>9.552684602533731</v>
+        <v>20.154306</v>
       </c>
       <c r="O14">
-        <v>0.08903631199983512</v>
+        <v>0.08561976287781047</v>
       </c>
       <c r="P14">
-        <v>0.08903631199983512</v>
+        <v>0.06709546746404282</v>
       </c>
       <c r="Q14">
-        <v>1.166422007194572</v>
+        <v>0.21235920422</v>
       </c>
       <c r="R14">
-        <v>1.166422007194572</v>
+        <v>1.27415522532</v>
       </c>
       <c r="S14">
-        <v>0.0002219226088663731</v>
+        <v>3.183011695716231E-05</v>
       </c>
       <c r="T14">
-        <v>0.0002219226088663731</v>
+        <v>3.648882007134473E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.122104105361669</v>
+        <v>0.02107333333333333</v>
       </c>
       <c r="H15">
-        <v>0.122104105361669</v>
+        <v>0.06322</v>
       </c>
       <c r="I15">
-        <v>0.002492495521004779</v>
+        <v>0.000371761330413723</v>
       </c>
       <c r="J15">
-        <v>0.002492495521004779</v>
+        <v>0.0005438343520134124</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>52.5510556573628</v>
+        <v>56.16712533333333</v>
       </c>
       <c r="N15">
-        <v>52.5510556573628</v>
+        <v>168.501376</v>
       </c>
       <c r="O15">
-        <v>0.4898049482538784</v>
+        <v>0.4772197020892965</v>
       </c>
       <c r="P15">
-        <v>0.4898049482538784</v>
+        <v>0.560955985835208</v>
       </c>
       <c r="Q15">
-        <v>6.41669963685356</v>
+        <v>1.183628554524444</v>
       </c>
       <c r="R15">
-        <v>6.41669963685356</v>
+        <v>10.65265699072</v>
       </c>
       <c r="S15">
-        <v>0.00122083663968877</v>
+        <v>0.0001774118313483574</v>
       </c>
       <c r="T15">
-        <v>0.00122083663968877</v>
+        <v>0.0003050671350647353</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.122104105361669</v>
+        <v>0.02107333333333333</v>
       </c>
       <c r="H16">
-        <v>0.122104105361669</v>
+        <v>0.06322</v>
       </c>
       <c r="I16">
-        <v>0.002492495521004779</v>
+        <v>0.000371761330413723</v>
       </c>
       <c r="J16">
-        <v>0.002492495521004779</v>
+        <v>0.0005438343520134124</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.889687520140936</v>
+        <v>0.9207109999999999</v>
       </c>
       <c r="N16">
-        <v>0.889687520140936</v>
+        <v>2.762133</v>
       </c>
       <c r="O16">
-        <v>0.008292380510984035</v>
+        <v>0.007822750880034444</v>
       </c>
       <c r="P16">
-        <v>0.008292380510984035</v>
+        <v>0.009195385087080598</v>
       </c>
       <c r="Q16">
-        <v>0.1086344986982509</v>
+        <v>0.01940244980666667</v>
       </c>
       <c r="R16">
-        <v>0.1086344986982509</v>
+        <v>0.17462204826</v>
       </c>
       <c r="S16">
-        <v>2.066872128209503E-05</v>
+        <v>2.908196274656727E-06</v>
       </c>
       <c r="T16">
-        <v>2.066872128209503E-05</v>
+        <v>5.000766290346273E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.122104105361669</v>
+        <v>0.02107333333333333</v>
       </c>
       <c r="H17">
-        <v>0.122104105361669</v>
+        <v>0.06322</v>
       </c>
       <c r="I17">
-        <v>0.002492495521004779</v>
+        <v>0.000371761330413723</v>
       </c>
       <c r="J17">
-        <v>0.002492495521004779</v>
+        <v>0.0005438343520134124</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.27656000284942</v>
+        <v>1.441214666666667</v>
       </c>
       <c r="N17">
-        <v>1.27656000284942</v>
+        <v>4.323644</v>
       </c>
       <c r="O17">
-        <v>0.01189824634951984</v>
+        <v>0.01224517063658978</v>
       </c>
       <c r="P17">
-        <v>0.01189824634951984</v>
+        <v>0.01439379333270538</v>
       </c>
       <c r="Q17">
-        <v>0.1558732170884181</v>
+        <v>0.03037119707555555</v>
       </c>
       <c r="R17">
-        <v>0.1558732170884181</v>
+        <v>0.27334077368</v>
       </c>
       <c r="S17">
-        <v>2.965632573398967E-05</v>
+        <v>4.552280927001672E-06</v>
       </c>
       <c r="T17">
-        <v>2.965632573398967E-05</v>
+        <v>7.827839270106806E-06</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.122104105361669</v>
+        <v>0.02107333333333333</v>
       </c>
       <c r="H18">
-        <v>0.122104105361669</v>
+        <v>0.06322</v>
       </c>
       <c r="I18">
-        <v>0.002492495521004779</v>
+        <v>0.000371761330413723</v>
       </c>
       <c r="J18">
-        <v>0.002492495521004779</v>
+        <v>0.0005438343520134124</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>6.1299349819137</v>
+        <v>6.460321333333333</v>
       </c>
       <c r="N18">
-        <v>6.1299349819137</v>
+        <v>19.380964</v>
       </c>
       <c r="O18">
-        <v>0.05713438957710472</v>
+        <v>0.05488962811961477</v>
       </c>
       <c r="P18">
-        <v>0.05713438957710472</v>
+        <v>0.06452094353850663</v>
       </c>
       <c r="Q18">
-        <v>0.748490226891771</v>
+        <v>0.1361405048977778</v>
       </c>
       <c r="R18">
-        <v>0.748490226891771</v>
+        <v>1.22526454408</v>
       </c>
       <c r="S18">
-        <v>0.0001424072101162757</v>
+        <v>2.040584117566249E-05</v>
       </c>
       <c r="T18">
-        <v>0.0001424072101162757</v>
+        <v>3.508870552055772E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>24</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.122104105361669</v>
+        <v>0.02107333333333333</v>
       </c>
       <c r="H19">
-        <v>0.122104105361669</v>
+        <v>0.06322</v>
       </c>
       <c r="I19">
-        <v>0.002492495521004779</v>
+        <v>0.000371761330413723</v>
       </c>
       <c r="J19">
-        <v>0.002492495521004779</v>
+        <v>0.0005438343520134124</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>36.8898378729875</v>
+        <v>42.6300515</v>
       </c>
       <c r="N19">
-        <v>36.8898378729875</v>
+        <v>85.260103</v>
       </c>
       <c r="O19">
-        <v>0.3438337233086778</v>
+        <v>0.362202985396654</v>
       </c>
       <c r="P19">
-        <v>0.3438337233086778</v>
+        <v>0.2838384247424566</v>
       </c>
       <c r="Q19">
-        <v>4.504400650418154</v>
+        <v>0.8983572852766667</v>
       </c>
       <c r="R19">
-        <v>4.504400650418154</v>
+        <v>5.39014371166</v>
       </c>
       <c r="S19">
-        <v>0.000857004015317276</v>
+        <v>0.0001346530637308824</v>
       </c>
       <c r="T19">
-        <v>0.000857004015317276</v>
+        <v>0.0001543610857963216</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.295842232935032</v>
+        <v>0.128441</v>
       </c>
       <c r="H20">
-        <v>0.295842232935032</v>
+        <v>0.385323</v>
       </c>
       <c r="I20">
-        <v>0.006038989748383188</v>
+        <v>0.002265868255599604</v>
       </c>
       <c r="J20">
-        <v>0.006038989748383188</v>
+        <v>0.00331464542899184</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>9.552684602533731</v>
+        <v>10.077153</v>
       </c>
       <c r="N20">
-        <v>9.552684602533731</v>
+        <v>20.154306</v>
       </c>
       <c r="O20">
-        <v>0.08903631199983512</v>
+        <v>0.08561976287781047</v>
       </c>
       <c r="P20">
-        <v>0.08903631199983512</v>
+        <v>0.06709546746404282</v>
       </c>
       <c r="Q20">
-        <v>2.826087543337677</v>
+        <v>1.294319608473</v>
       </c>
       <c r="R20">
-        <v>2.826087543337677</v>
+        <v>7.765917650837999</v>
       </c>
       <c r="S20">
-        <v>0.0005376893754008513</v>
+        <v>0.0001940031027567961</v>
       </c>
       <c r="T20">
-        <v>0.0005376893754008513</v>
+        <v>0.0002223976845357603</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.295842232935032</v>
+        <v>0.128441</v>
       </c>
       <c r="H21">
-        <v>0.295842232935032</v>
+        <v>0.385323</v>
       </c>
       <c r="I21">
-        <v>0.006038989748383188</v>
+        <v>0.002265868255599604</v>
       </c>
       <c r="J21">
-        <v>0.006038989748383188</v>
+        <v>0.00331464542899184</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>52.5510556573628</v>
+        <v>56.16712533333333</v>
       </c>
       <c r="N21">
-        <v>52.5510556573628</v>
+        <v>168.501376</v>
       </c>
       <c r="O21">
-        <v>0.4898049482538784</v>
+        <v>0.4772197020892965</v>
       </c>
       <c r="P21">
-        <v>0.4898049482538784</v>
+        <v>0.560955985835208</v>
       </c>
       <c r="Q21">
-        <v>15.54682164876736</v>
+        <v>7.214161744938666</v>
       </c>
       <c r="R21">
-        <v>15.54682164876736</v>
+        <v>64.92745570444799</v>
       </c>
       <c r="S21">
-        <v>0.00295792706121253</v>
+        <v>0.001081316973910837</v>
       </c>
       <c r="T21">
-        <v>0.00295792706121253</v>
+        <v>0.001859370194314284</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.295842232935032</v>
+        <v>0.128441</v>
       </c>
       <c r="H22">
-        <v>0.295842232935032</v>
+        <v>0.385323</v>
       </c>
       <c r="I22">
-        <v>0.006038989748383188</v>
+        <v>0.002265868255599604</v>
       </c>
       <c r="J22">
-        <v>0.006038989748383188</v>
+        <v>0.00331464542899184</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.889687520140936</v>
+        <v>0.9207109999999999</v>
       </c>
       <c r="N22">
-        <v>0.889687520140936</v>
+        <v>2.762133</v>
       </c>
       <c r="O22">
-        <v>0.008292380510984035</v>
+        <v>0.007822750880034444</v>
       </c>
       <c r="P22">
-        <v>0.008292380510984035</v>
+        <v>0.009195385087080598</v>
       </c>
       <c r="Q22">
-        <v>0.2632071425729258</v>
+        <v>0.118257041551</v>
       </c>
       <c r="R22">
-        <v>0.2632071425729258</v>
+        <v>1.064313373959</v>
       </c>
       <c r="S22">
-        <v>5.007760089552513E-05</v>
+        <v>1.772532289053391E-05</v>
       </c>
       <c r="T22">
-        <v>5.007760089552513E-05</v>
+        <v>3.047944114671144E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.295842232935032</v>
+        <v>0.128441</v>
       </c>
       <c r="H23">
-        <v>0.295842232935032</v>
+        <v>0.385323</v>
       </c>
       <c r="I23">
-        <v>0.006038989748383188</v>
+        <v>0.002265868255599604</v>
       </c>
       <c r="J23">
-        <v>0.006038989748383188</v>
+        <v>0.00331464542899184</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>1.27656000284942</v>
+        <v>1.441214666666667</v>
       </c>
       <c r="N23">
-        <v>1.27656000284942</v>
+        <v>4.323644</v>
       </c>
       <c r="O23">
-        <v>0.01189824634951984</v>
+        <v>0.01224517063658978</v>
       </c>
       <c r="P23">
-        <v>0.01189824634951984</v>
+        <v>0.01439379333270538</v>
       </c>
       <c r="Q23">
-        <v>0.3776603617185232</v>
+        <v>0.1851110530013333</v>
       </c>
       <c r="R23">
-        <v>0.3776603617185232</v>
+        <v>1.665999477012</v>
       </c>
       <c r="S23">
-        <v>7.185338772848802E-05</v>
+        <v>2.774594342984919E-05</v>
       </c>
       <c r="T23">
-        <v>7.185338772848802E-05</v>
+        <v>4.771032127610511E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.295842232935032</v>
+        <v>0.128441</v>
       </c>
       <c r="H24">
-        <v>0.295842232935032</v>
+        <v>0.385323</v>
       </c>
       <c r="I24">
-        <v>0.006038989748383188</v>
+        <v>0.002265868255599604</v>
       </c>
       <c r="J24">
-        <v>0.006038989748383188</v>
+        <v>0.00331464542899184</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>6.1299349819137</v>
+        <v>6.460321333333333</v>
       </c>
       <c r="N24">
-        <v>6.1299349819137</v>
+        <v>19.380964</v>
       </c>
       <c r="O24">
-        <v>0.05713438957710472</v>
+        <v>0.05488962811961477</v>
       </c>
       <c r="P24">
-        <v>0.05713438957710472</v>
+        <v>0.06452094353850663</v>
       </c>
       <c r="Q24">
-        <v>1.813493652795914</v>
+        <v>0.8297701323746666</v>
       </c>
       <c r="R24">
-        <v>1.813493652795914</v>
+        <v>7.467931191371999</v>
       </c>
       <c r="S24">
-        <v>0.0003450339929362666</v>
+        <v>0.0001243726659179025</v>
       </c>
       <c r="T24">
-        <v>0.0003450339929362666</v>
+        <v>0.0002138640505741516</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,61 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
       </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>24</v>
-      </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.295842232935032</v>
+        <v>0.128441</v>
       </c>
       <c r="H25">
-        <v>0.295842232935032</v>
+        <v>0.385323</v>
       </c>
       <c r="I25">
-        <v>0.006038989748383188</v>
+        <v>0.002265868255599604</v>
       </c>
       <c r="J25">
-        <v>0.006038989748383188</v>
+        <v>0.00331464542899184</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>36.8898378729875</v>
+        <v>42.6300515</v>
       </c>
       <c r="N25">
-        <v>36.8898378729875</v>
+        <v>85.260103</v>
       </c>
       <c r="O25">
-        <v>0.3438337233086778</v>
+        <v>0.362202985396654</v>
       </c>
       <c r="P25">
-        <v>0.3438337233086778</v>
+        <v>0.2838384247424566</v>
       </c>
       <c r="Q25">
-        <v>10.91357200895593</v>
+        <v>5.4754464447115</v>
       </c>
       <c r="R25">
-        <v>10.91357200895593</v>
+        <v>32.852678668269</v>
       </c>
       <c r="S25">
-        <v>0.002076408330209526</v>
+        <v>0.0008207042466936853</v>
       </c>
       <c r="T25">
-        <v>0.002076408330209526</v>
+        <v>0.0009408237371448281</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,61 +2016,61 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>46.1126627723926</v>
+        <v>0.3791873333333333</v>
       </c>
       <c r="H26">
-        <v>46.1126627723926</v>
+        <v>1.137562</v>
       </c>
       <c r="I26">
-        <v>0.941291900721571</v>
+        <v>0.006689363532870856</v>
       </c>
       <c r="J26">
-        <v>0.941291900721571</v>
+        <v>0.009785594640067724</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>9.552684602533731</v>
+        <v>10.077153</v>
       </c>
       <c r="N26">
-        <v>9.552684602533731</v>
+        <v>20.154306</v>
       </c>
       <c r="O26">
-        <v>0.08903631199983512</v>
+        <v>0.08561976287781047</v>
       </c>
       <c r="P26">
-        <v>0.08903631199983512</v>
+        <v>0.06709546746404282</v>
       </c>
       <c r="Q26">
-        <v>440.4997236476652</v>
+        <v>3.821128773662</v>
       </c>
       <c r="R26">
-        <v>440.4997236476652</v>
+        <v>22.926772641972</v>
       </c>
       <c r="S26">
-        <v>0.08380915935556363</v>
+        <v>0.0005727417194878752</v>
       </c>
       <c r="T26">
-        <v>0.08380915935556363</v>
+        <v>0.0006565690467889759</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,61 +2078,61 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>46.1126627723926</v>
+        <v>0.3791873333333333</v>
       </c>
       <c r="H27">
-        <v>46.1126627723926</v>
+        <v>1.137562</v>
       </c>
       <c r="I27">
-        <v>0.941291900721571</v>
+        <v>0.006689363532870856</v>
       </c>
       <c r="J27">
-        <v>0.941291900721571</v>
+        <v>0.009785594640067724</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>52.5510556573628</v>
+        <v>56.16712533333333</v>
       </c>
       <c r="N27">
-        <v>52.5510556573628</v>
+        <v>168.501376</v>
       </c>
       <c r="O27">
-        <v>0.4898049482538784</v>
+        <v>0.4772197020892965</v>
       </c>
       <c r="P27">
-        <v>0.4898049482538784</v>
+        <v>0.560955985835208</v>
       </c>
       <c r="Q27">
-        <v>2423.269107861206</v>
+        <v>21.29786247614578</v>
       </c>
       <c r="R27">
-        <v>2423.269107861206</v>
+        <v>191.680762285312</v>
       </c>
       <c r="S27">
-        <v>0.4610494307247239</v>
+        <v>0.003192296072323634</v>
       </c>
       <c r="T27">
-        <v>0.4610494307247239</v>
+        <v>0.005489287888302918</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,61 +2140,61 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>46.1126627723926</v>
+        <v>0.3791873333333333</v>
       </c>
       <c r="H28">
-        <v>46.1126627723926</v>
+        <v>1.137562</v>
       </c>
       <c r="I28">
-        <v>0.941291900721571</v>
+        <v>0.006689363532870856</v>
       </c>
       <c r="J28">
-        <v>0.941291900721571</v>
+        <v>0.009785594640067724</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>0.889687520140936</v>
+        <v>0.9207109999999999</v>
       </c>
       <c r="N28">
-        <v>0.889687520140936</v>
+        <v>2.762133</v>
       </c>
       <c r="O28">
-        <v>0.008292380510984035</v>
+        <v>0.007822750880034444</v>
       </c>
       <c r="P28">
-        <v>0.008292380510984035</v>
+        <v>0.009195385087080598</v>
       </c>
       <c r="Q28">
-        <v>41.02586058906523</v>
+        <v>0.3491219488606666</v>
       </c>
       <c r="R28">
-        <v>41.02586058906523</v>
+        <v>3.142097539746</v>
       </c>
       <c r="S28">
-        <v>0.007805550612690674</v>
+        <v>5.232922446363581E-05</v>
       </c>
       <c r="T28">
-        <v>0.007805550612690674</v>
+        <v>8.998231102149459E-05</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,61 +2202,61 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>46.1126627723926</v>
+        <v>0.3791873333333333</v>
       </c>
       <c r="H29">
-        <v>46.1126627723926</v>
+        <v>1.137562</v>
       </c>
       <c r="I29">
-        <v>0.941291900721571</v>
+        <v>0.006689363532870856</v>
       </c>
       <c r="J29">
-        <v>0.941291900721571</v>
+        <v>0.009785594640067724</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>1.27656000284942</v>
+        <v>1.441214666666667</v>
       </c>
       <c r="N29">
-        <v>1.27656000284942</v>
+        <v>4.323644</v>
       </c>
       <c r="O29">
-        <v>0.01189824634951984</v>
+        <v>0.01224517063658978</v>
       </c>
       <c r="P29">
-        <v>0.01189824634951984</v>
+        <v>0.01439379333270538</v>
       </c>
       <c r="Q29">
-        <v>58.86558092011985</v>
+        <v>0.5464903462142221</v>
       </c>
       <c r="R29">
-        <v>58.86558092011985</v>
+        <v>4.918413115928</v>
       </c>
       <c r="S29">
-        <v>0.01119972292159303</v>
+        <v>8.19123979101847E-05</v>
       </c>
       <c r="T29">
-        <v>0.01119972292159303</v>
+        <v>0.0001408518268867643</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,61 +2264,61 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>46.1126627723926</v>
+        <v>0.3791873333333333</v>
       </c>
       <c r="H30">
-        <v>46.1126627723926</v>
+        <v>1.137562</v>
       </c>
       <c r="I30">
-        <v>0.941291900721571</v>
+        <v>0.006689363532870856</v>
       </c>
       <c r="J30">
-        <v>0.941291900721571</v>
+        <v>0.009785594640067724</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>6.1299349819137</v>
+        <v>6.460321333333333</v>
       </c>
       <c r="N30">
-        <v>6.1299349819137</v>
+        <v>19.380964</v>
       </c>
       <c r="O30">
-        <v>0.05713438957710472</v>
+        <v>0.05488962811961477</v>
       </c>
       <c r="P30">
-        <v>0.05713438957710472</v>
+        <v>0.06452094353850663</v>
       </c>
       <c r="Q30">
-        <v>282.667624637679</v>
+        <v>2.449672018863111</v>
       </c>
       <c r="R30">
-        <v>282.667624637679</v>
+        <v>22.047048169768</v>
       </c>
       <c r="S30">
-        <v>0.05378013816159961</v>
+        <v>0.0003671766766761937</v>
       </c>
       <c r="T30">
-        <v>0.05378013816159961</v>
+        <v>0.0006313757992625227</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,61 +2326,433 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>0.3791873333333333</v>
+      </c>
+      <c r="H31">
+        <v>1.137562</v>
+      </c>
+      <c r="I31">
+        <v>0.006689363532870856</v>
+      </c>
+      <c r="J31">
+        <v>0.009785594640067724</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>42.6300515</v>
+      </c>
+      <c r="N31">
+        <v>85.260103</v>
+      </c>
+      <c r="O31">
+        <v>0.362202985396654</v>
+      </c>
+      <c r="P31">
+        <v>0.2838384247424566</v>
+      </c>
+      <c r="Q31">
+        <v>16.16477554814767</v>
+      </c>
+      <c r="R31">
+        <v>96.988653288886</v>
+      </c>
+      <c r="S31">
+        <v>0.002422907442009333</v>
+      </c>
+      <c r="T31">
+        <v>0.002777527767805049</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>53.1378185</v>
+      </c>
+      <c r="H32">
+        <v>106.275637</v>
+      </c>
+      <c r="I32">
+        <v>0.9374210424316487</v>
+      </c>
+      <c r="J32">
+        <v>0.9142097782775648</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>10.077153</v>
+      </c>
+      <c r="N32">
+        <v>20.154306</v>
+      </c>
+      <c r="O32">
+        <v>0.08561976287781047</v>
+      </c>
+      <c r="P32">
+        <v>0.06709546746404282</v>
+      </c>
+      <c r="Q32">
+        <v>535.4779271107304</v>
+      </c>
+      <c r="R32">
+        <v>2141.911708442922</v>
+      </c>
+      <c r="S32">
+        <v>0.08026176736966767</v>
+      </c>
+      <c r="T32">
+        <v>0.06133933243373215</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>53.1378185</v>
+      </c>
+      <c r="H33">
+        <v>106.275637</v>
+      </c>
+      <c r="I33">
+        <v>0.9374210424316487</v>
+      </c>
+      <c r="J33">
+        <v>0.9142097782775648</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>56.16712533333333</v>
+      </c>
+      <c r="N33">
+        <v>168.501376</v>
+      </c>
+      <c r="O33">
+        <v>0.4772197020892965</v>
+      </c>
+      <c r="P33">
+        <v>0.560955985835208</v>
+      </c>
+      <c r="Q33">
+        <v>2984.598511629419</v>
+      </c>
+      <c r="R33">
+        <v>17907.59106977651</v>
+      </c>
+      <c r="S33">
+        <v>0.4473557906014692</v>
+      </c>
+      <c r="T33">
+        <v>0.5128314474338783</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>53.1378185</v>
+      </c>
+      <c r="H34">
+        <v>106.275637</v>
+      </c>
+      <c r="I34">
+        <v>0.9374210424316487</v>
+      </c>
+      <c r="J34">
+        <v>0.9142097782775648</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>0.9207109999999999</v>
+      </c>
+      <c r="N34">
+        <v>2.762133</v>
+      </c>
+      <c r="O34">
+        <v>0.007822750880034444</v>
+      </c>
+      <c r="P34">
+        <v>0.009195385087080598</v>
+      </c>
+      <c r="Q34">
+        <v>48.9245740089535</v>
+      </c>
+      <c r="R34">
+        <v>293.547444053721</v>
+      </c>
+      <c r="S34">
+        <v>0.007333211284644986</v>
+      </c>
+      <c r="T34">
+        <v>0.00840651096163678</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>53.1378185</v>
+      </c>
+      <c r="H35">
+        <v>106.275637</v>
+      </c>
+      <c r="I35">
+        <v>0.9374210424316487</v>
+      </c>
+      <c r="J35">
+        <v>0.9142097782775648</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>1.441214666666667</v>
+      </c>
+      <c r="N35">
+        <v>4.323644</v>
+      </c>
+      <c r="O35">
+        <v>0.01224517063658978</v>
+      </c>
+      <c r="P35">
+        <v>0.01439379333270538</v>
+      </c>
+      <c r="Q35">
+        <v>76.58300337687133</v>
+      </c>
+      <c r="R35">
+        <v>459.498020261228</v>
+      </c>
+      <c r="S35">
+        <v>0.01147888062290541</v>
+      </c>
+      <c r="T35">
+        <v>0.01315894661126567</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
         <v>24</v>
       </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>46.1126627723926</v>
-      </c>
-      <c r="H31">
-        <v>46.1126627723926</v>
-      </c>
-      <c r="I31">
-        <v>0.941291900721571</v>
-      </c>
-      <c r="J31">
-        <v>0.941291900721571</v>
-      </c>
-      <c r="K31">
-        <v>1</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>36.8898378729875</v>
-      </c>
-      <c r="N31">
-        <v>36.8898378729875</v>
-      </c>
-      <c r="O31">
-        <v>0.3438337233086778</v>
-      </c>
-      <c r="P31">
-        <v>0.3438337233086778</v>
-      </c>
-      <c r="Q31">
-        <v>1701.088653565309</v>
-      </c>
-      <c r="R31">
-        <v>1701.088653565309</v>
-      </c>
-      <c r="S31">
-        <v>0.3236478989454</v>
-      </c>
-      <c r="T31">
-        <v>0.3236478989454</v>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>53.1378185</v>
+      </c>
+      <c r="H36">
+        <v>106.275637</v>
+      </c>
+      <c r="I36">
+        <v>0.9374210424316487</v>
+      </c>
+      <c r="J36">
+        <v>0.9142097782775648</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>6.460321333333333</v>
+      </c>
+      <c r="N36">
+        <v>19.380964</v>
+      </c>
+      <c r="O36">
+        <v>0.05488962811961477</v>
+      </c>
+      <c r="P36">
+        <v>0.06452094353850663</v>
+      </c>
+      <c r="Q36">
+        <v>343.2873824623447</v>
+      </c>
+      <c r="R36">
+        <v>2059.724294774068</v>
+      </c>
+      <c r="S36">
+        <v>0.05145469241057481</v>
+      </c>
+      <c r="T36">
+        <v>0.05898567748659742</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>53.1378185</v>
+      </c>
+      <c r="H37">
+        <v>106.275637</v>
+      </c>
+      <c r="I37">
+        <v>0.9374210424316487</v>
+      </c>
+      <c r="J37">
+        <v>0.9142097782775648</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>42.6300515</v>
+      </c>
+      <c r="N37">
+        <v>85.260103</v>
+      </c>
+      <c r="O37">
+        <v>0.362202985396654</v>
+      </c>
+      <c r="P37">
+        <v>0.2838384247424566</v>
+      </c>
+      <c r="Q37">
+        <v>2265.267939252653</v>
+      </c>
+      <c r="R37">
+        <v>9061.071757010612</v>
+      </c>
+      <c r="S37">
+        <v>0.3395367001423866</v>
+      </c>
+      <c r="T37">
+        <v>0.2594878633504545</v>
       </c>
     </row>
   </sheetData>
